--- a/homework4/test case.xlsx
+++ b/homework4/test case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farid/eclipse-workspace/week1/homework4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51071F35-E660-1848-A0B2-D62C5B508F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F4D5FB-F913-7C41-BA85-AD68436C3055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" activeTab="1" xr2:uid="{4328A48E-1AFF-3547-9279-FE6AEE214CE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{4328A48E-1AFF-3547-9279-FE6AEE214CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>test description</t>
   </si>
@@ -52,24 +52,12 @@
     <t>Tc02</t>
   </si>
   <si>
-    <t>Tc03</t>
-  </si>
-  <si>
-    <t>Tc04</t>
-  </si>
-  <si>
-    <t>Tc05</t>
-  </si>
-  <si>
     <t>Tc 06</t>
   </si>
   <si>
     <t>Tc 07</t>
   </si>
   <si>
-    <t>Tc 08</t>
-  </si>
-  <si>
     <t>Step number</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>statefarm homepage opens</t>
   </si>
   <si>
-    <t>try login with rendom username</t>
-  </si>
-  <si>
     <t>page asking for user ID and password</t>
   </si>
   <si>
@@ -164,6 +149,69 @@
     </r>
   </si>
   <si>
+    <t>search barre asking for zip code</t>
+  </si>
+  <si>
+    <t>a list of agents will appear</t>
+  </si>
+  <si>
+    <t>agent information appears</t>
+  </si>
+  <si>
+    <t>could make a caal</t>
+  </si>
+  <si>
+    <t>list of choise will appear</t>
+  </si>
+  <si>
+    <t>a description page opens with choise easy cheking or gold checking</t>
+  </si>
+  <si>
+    <t>page asks to login or continue as guest</t>
+  </si>
+  <si>
+    <t>a list of choise pops up</t>
+  </si>
+  <si>
+    <t>description page opens and ask if want to get a quote</t>
+  </si>
+  <si>
+    <t>a form page opens to put your information</t>
+  </si>
+  <si>
+    <t>a page opens "pay insurance bill" and gives choise to search for bill</t>
+  </si>
+  <si>
+    <t>a page asks to login to your account</t>
+  </si>
+  <si>
+    <t>a page with mutipal choise opens</t>
+  </si>
+  <si>
+    <t>a list of document or information needed will appear</t>
+  </si>
+  <si>
+    <t>a page will ask to login or create an account</t>
+  </si>
+  <si>
+    <t>a page will ask to enter your information</t>
+  </si>
+  <si>
+    <t>an account will be created</t>
+  </si>
+  <si>
+    <t>fails</t>
+  </si>
+  <si>
+    <t>a list of type of investmens appears</t>
+  </si>
+  <si>
+    <t>an other page for explanation will open</t>
+  </si>
+  <si>
+    <t>simplify the way how to create an account</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -180,6 +228,29 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>: click on claims</t>
+    </r>
+  </si>
+  <si>
+    <t>Statefarm-website test cases</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>:on the top right click Login</t>
     </r>
   </si>
@@ -191,6 +262,86 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>Step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: enter password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: type any user ID </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: hit enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on find agnt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Step 02</t>
     </r>
     <r>
@@ -200,95 +351,114 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: type any user ID and password the click login</t>
-    </r>
-  </si>
-  <si>
-    <t>search for an agent near</t>
-  </si>
-  <si>
-    <t>search barre asking for zip code</t>
-  </si>
-  <si>
-    <t>a list of agents will appear</t>
-  </si>
-  <si>
-    <t>get the agent informations</t>
-  </si>
-  <si>
-    <t>agent information appears</t>
-  </si>
-  <si>
-    <t>could make a caal</t>
-  </si>
-  <si>
-    <t>explore banking sesion</t>
-  </si>
-  <si>
-    <t>list of choise will appear</t>
-  </si>
-  <si>
-    <t>a description page opens with choise easy cheking or gold checking</t>
-  </si>
-  <si>
-    <t>page asks to login or continue as guest</t>
-  </si>
-  <si>
-    <t>explore insurance</t>
-  </si>
-  <si>
-    <t>a list of choise pops up</t>
-  </si>
-  <si>
-    <t>description page opens and ask if want to get a quote</t>
-  </si>
-  <si>
-    <t>a form page opens to put your information</t>
-  </si>
-  <si>
-    <t>paying bills</t>
-  </si>
-  <si>
-    <t>a page opens "pay insurance bill" and gives choise to search for bill</t>
-  </si>
-  <si>
-    <t>a page asks to login to your account</t>
-  </si>
-  <si>
-    <t>file a claim</t>
-  </si>
-  <si>
-    <t>a page with mutipal choise opens</t>
-  </si>
-  <si>
-    <t>a list of document or information needed will appear</t>
-  </si>
-  <si>
-    <t>create an account</t>
-  </si>
-  <si>
-    <t>a page will ask to login or create an account</t>
-  </si>
-  <si>
-    <t>a page will ask to enter your information</t>
-  </si>
-  <si>
-    <t>an account will be created</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>explore investment section</t>
-  </si>
-  <si>
-    <t>a list of type of investmens appears</t>
-  </si>
-  <si>
-    <t>an other page for explanation will open</t>
-  </si>
-  <si>
-    <t>simplify the way how to create an account</t>
+      <t>:enter zip code</t>
+    </r>
+  </si>
+  <si>
+    <t>find agent nearby</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on find agnt button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on agent website</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: choose a product from the list to get a quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: enter zip code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:hit get a quote</t>
+    </r>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
   <si>
     <r>
@@ -307,7 +477,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: ckick on find an agent</t>
+      <t>: click on insurrance</t>
     </r>
   </si>
   <si>
@@ -327,8 +497,134 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: enter your zip code</t>
-    </r>
+      <t>: select car insurrance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 03:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> click on sports cars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on insuring your sports car</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: cars Insurance deductibles Choosing well</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: choosse The Basics on top and select auto and Vehicules</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select Us Less Gas with these fuel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: print the page</t>
+    </r>
+  </si>
+  <si>
+    <t>Tc 03</t>
+  </si>
+  <si>
+    <t>banking</t>
   </si>
   <si>
     <r>
@@ -347,7 +643,154 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: click on agent website</t>
+      <t>:click on banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: choose checking</t>
+    </r>
+  </si>
+  <si>
+    <t>investments</t>
+  </si>
+  <si>
+    <t>Tc 4</t>
+  </si>
+  <si>
+    <t>Tc 05</t>
+  </si>
+  <si>
+    <t>Get a qute</t>
+  </si>
+  <si>
+    <t>pay bill</t>
+  </si>
+  <si>
+    <t>Tc 8</t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>claims help</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on compare checking accounts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: scoll down and click learn more about easy checking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click apply online</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: continue as a guest</t>
     </r>
   </si>
   <si>
@@ -367,178 +810,458 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: click on banking</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on the phone number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: click on checking account</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: click on apply with U.S bank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on insurrance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on car insurance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: put your zip code and click start a quote</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: click on Pay bill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> put your information then click pay now</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 01</t>
+      <t>: click on Investements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:mutual found</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on Use of life insurance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: scroll down and choose Investement Style</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:  select your state from a list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:click on Go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select yes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: enter date of birth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on get a quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: slect homeowners from list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : enter zip code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click start a quote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: choose your starting date </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: enter your information </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: choose same as above for mailing address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:hit enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on pay bill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: choose pbone number from list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:enter phone number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:enter date of birth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click pay now</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click cancel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 01</t>
     </r>
     <r>
       <rPr>
@@ -558,119 +1281,296 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: shoose the claim you want</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on create account</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: enter your information then click continue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:click on investment</t>
-    </r>
-  </si>
-  <si>
-    <t>Statefarm-website test cases</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Step 02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: click on mutual funds</t>
+      <t>step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select claims</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select file a claim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select home, Boat,and proprety</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click start a claim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click on claims help</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select home+proprety</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click see steps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click next step</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click previous step</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: on top right click help</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: click forgot ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: enter phone number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:enter email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: enter date of birth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>step 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: select text and hit submit</t>
     </r>
   </si>
 </sst>
@@ -755,7 +1655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -815,11 +1715,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -827,18 +1787,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,26 +1807,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,40 +2226,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I3" s="17"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I4" s="17"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I5" s="17"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="16"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1265,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC98565-62A6-3347-8391-26A33407E4DC}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,508 +2304,1125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+      <c r="C7" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="5"/>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5"/>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="4"/>
+    <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="5"/>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
+      <c r="G27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1"/>
     </row>
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="B58" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="32"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="B63" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="32"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
+  <mergeCells count="31">
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="A35:A43"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
